--- a/joeunmall_자료/joeun_테이블설계.xlsx
+++ b/joeunmall_자료/joeun_테이블설계.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\joeunmall-teamproject2\joeunmall_자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\joeunmall_프로젝트_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1745,6 +1745,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1819,9 +1822,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2139,12 +2139,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.375" bestFit="1" customWidth="1"/>
@@ -2158,30 +2159,30 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
@@ -2462,30 +2463,30 @@
     </row>
     <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="46" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="24" t="s">
@@ -2693,30 +2694,30 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="46" t="s">
+      <c r="C33" s="51"/>
+      <c r="D33" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="43" t="s">
+      <c r="C34" s="53"/>
+      <c r="D34" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="24" t="s">
@@ -2797,30 +2798,30 @@
     </row>
     <row r="39" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="51"/>
+      <c r="D40" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="49"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="43" t="s">
+      <c r="C41" s="53"/>
+      <c r="D41" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="24" t="s">
@@ -2904,30 +2905,30 @@
     </row>
     <row r="46" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="46" t="s">
+      <c r="C47" s="51"/>
+      <c r="D47" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="49"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="43" t="s">
+      <c r="C48" s="53"/>
+      <c r="D48" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="24" t="s">
@@ -3023,30 +3024,30 @@
     </row>
     <row r="54" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="50"/>
-      <c r="D55" s="46" t="s">
+      <c r="C55" s="51"/>
+      <c r="D55" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="49"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="43" t="s">
+      <c r="C56" s="53"/>
+      <c r="D56" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="46"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="24" t="s">
@@ -3153,30 +3154,30 @@
     </row>
     <row r="62" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="50"/>
-      <c r="D63" s="46" t="s">
+      <c r="C63" s="51"/>
+      <c r="D63" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="49"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="43" t="s">
+      <c r="C64" s="53"/>
+      <c r="D64" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="46"/>
       <c r="I64" s="4" t="s">
         <v>252</v>
       </c>
@@ -3329,30 +3330,30 @@
     </row>
     <row r="72" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="49" t="s">
+      <c r="B73" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="50"/>
-      <c r="D73" s="46" t="s">
+      <c r="C73" s="51"/>
+      <c r="D73" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="49"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="52"/>
-      <c r="D74" s="43" t="s">
+      <c r="C74" s="53"/>
+      <c r="D74" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="46"/>
       <c r="I74" s="4" t="s">
         <v>93</v>
       </c>
@@ -3638,30 +3639,30 @@
     </row>
     <row r="89" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B90" s="53" t="s">
+      <c r="B90" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="54"/>
-      <c r="D90" s="61" t="s">
+      <c r="C90" s="55"/>
+      <c r="D90" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="62"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="63"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="56"/>
-      <c r="D91" s="43" t="s">
+      <c r="C91" s="57"/>
+      <c r="D91" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="46"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="38" t="s">
@@ -3708,7 +3709,7 @@
       <c r="H93" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="I93" s="68" t="s">
+      <c r="I93" s="43" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3823,30 +3824,30 @@
       <c r="H99" s="21"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="59" t="s">
+      <c r="B100" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="60"/>
-      <c r="D100" s="63" t="s">
+      <c r="C100" s="61"/>
+      <c r="D100" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="E100" s="63"/>
-      <c r="F100" s="63"/>
-      <c r="G100" s="63"/>
-      <c r="H100" s="64"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="65"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="58"/>
-      <c r="D101" s="65" t="s">
+      <c r="C101" s="59"/>
+      <c r="D101" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="68"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="24" t="s">
@@ -3930,30 +3931,30 @@
     </row>
     <row r="106" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="54"/>
-      <c r="D107" s="46" t="s">
+      <c r="C107" s="55"/>
+      <c r="D107" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="E107" s="47"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="48"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="49"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B108" s="55" t="s">
+      <c r="B108" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="56"/>
-      <c r="D108" s="43" t="s">
+      <c r="C108" s="57"/>
+      <c r="D108" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E108" s="44"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="45"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="46"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="24" t="s">
@@ -4028,30 +4029,30 @@
     </row>
     <row r="113" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="114" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B114" s="49" t="s">
+      <c r="B114" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="50"/>
-      <c r="D114" s="46" t="s">
+      <c r="C114" s="51"/>
+      <c r="D114" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="E114" s="47"/>
-      <c r="F114" s="47"/>
-      <c r="G114" s="47"/>
-      <c r="H114" s="48"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="49"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B115" s="51" t="s">
+      <c r="B115" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="52"/>
-      <c r="D115" s="43" t="s">
+      <c r="C115" s="53"/>
+      <c r="D115" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E115" s="44"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="45"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="46"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="24" t="s">
@@ -4247,30 +4248,30 @@
     </row>
     <row r="126" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="127" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B127" s="49" t="s">
+      <c r="B127" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C127" s="50"/>
-      <c r="D127" s="46" t="s">
+      <c r="C127" s="51"/>
+      <c r="D127" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="E127" s="47"/>
-      <c r="F127" s="47"/>
-      <c r="G127" s="47"/>
-      <c r="H127" s="48"/>
+      <c r="E127" s="48"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="49"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B128" s="51" t="s">
+      <c r="B128" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C128" s="52"/>
-      <c r="D128" s="43" t="s">
+      <c r="C128" s="53"/>
+      <c r="D128" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="E128" s="44"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="45"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="46"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="24" t="s">

--- a/joeunmall_자료/joeun_테이블설계.xlsx
+++ b/joeunmall_자료/joeun_테이블설계.xlsx
@@ -410,10 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문의접수 / 답변완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품옵션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,10 +638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품 / (교환/환불)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(10 CHAR)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,47 +662,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품옵션번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_ADDRESS_DETAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE DEFAULT SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STATE_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매상태정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STATE_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CHAR(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품옵션번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_ADDRESS_DETAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE DEFAULT SYSDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_TBL</t>
+    <t>판매상태번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -718,126 +722,326 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PRODUCT_STATE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매상태번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PRODUCT_STATE_INDEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USER_TBL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PRODUCT_CATEGORY_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_OPTION_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_IMAGE_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CART_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_PRODUCT_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INQUIRY_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력형식</t>
+  </si>
+  <si>
+    <t>입력형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매중, 판매종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'카테고리 번호 2자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿0000000_CA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿000000_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿000000_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000_OP0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'상품번호' (+) _REV (+) '해당 상품의 리뷰 등록 순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'고객번호' (+) _CA (+) '장바구니 번호 1자리'  (장바구니 번호는 1~5까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 또는 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿000000_000_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿00_00_000_REV000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'주문일자 6자리'_'주문일자의 주문순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿000000_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'가입년도 4자리' (+) '해당년도 가입 순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_STATE_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 또는 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 있는 상품개수를 복사해와야함, FK로 했을 시 장바구니가 사라지면 주문한 상품수량을 알 수 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'상품등록연도 2자리'_'상품 카테고리 번호 2자리'_'상품 등록 순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티셔츠, 팬츠/스커트, 원피스, 니트/가디건, 자켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'상품번호' (+) _OP (+) '상품 옵션번호 1자리'  (상품 옵션번호는 1~5까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 한종류당 장바구니 한개씩 / 고객당 장바구니상품 5개까지만 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'주문번호'_'주문상품 번호 1자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY (+) '결제유형번호'  (결제유형번호는 1~3까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무통장입금, 신용카드, 휴대폰결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA (+) '진행상태번호'  (진행상태번호는 1~9까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 확인중, 상품준비, 배송처리, 배송완료, 주문취소, 반품 처리중, 환불완료, 교환 처리중, 교환완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PRODUCT_TBL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PRODUCT_CATEGORY_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_OPTION_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_IMAGE_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CART_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_PRODUCT_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INQUIRY_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REVIEW_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력형식</t>
-  </si>
-  <si>
-    <t>입력형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매중, 판매종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'카테고리 번호 2자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿0000000_CA0</t>
+    <t>00_00_000_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'상품번호'_'상품 이미지 등록 순서 1자리'  (상품 이미지는 1~5까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000_OP0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -845,219 +1049,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>﻿000000_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000_OP0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'상품번호' (+) _REV (+) '해당 상품의 리뷰 등록 순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'고객번호' (+) _CA (+) '장바구니 번호 1자리'  (장바구니 번호는 1~5까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 또는 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000_OP0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000_000_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿00_00_000_REV000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'주문일자 6자리'_'주문일자의 주문순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'가입년도 4자리' (+) '해당년도 가입 순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STA0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_STATE_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYMENT_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYMENT_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 또는 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 있는 상품개수를 복사해와야함, FK로 했을 시 장바구니가 사라지면 주문한 상품수량을 알 수 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'상품등록연도 2자리'_'상품 카테고리 번호 2자리'_'상품 등록 순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티셔츠, 팬츠/스커트, 원피스, 니트/가디건, 자켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'상품번호' (+) _OP (+) '상품 옵션번호 1자리'  (상품 옵션번호는 1~5까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'상품번호'_'상품 이미지 등록 순서 1자리'  (상품 이미지는 1~5까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 한종류당 장바구니 한개씩 / 고객당 장바구니상품 5개까지만 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'주문번호'_'주문상품 번호 1자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY (+) '결제유형번호'  (결제유형번호는 1~3까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무통장입금, 신용카드, 휴대폰결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STA (+) '진행상태번호'  (진행상태번호는 1~9까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자 확인중, 상품준비, 배송처리, 배송완료, 주문취소, 반품 처리중, 환불완료, 교환 처리중, 교환완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>﻿'문의일자 6자리' (+) '해당일자 문의순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의접수, 답변완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품, 교환/환불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2139,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="F103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="47" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
@@ -2204,7 +2204,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -2218,19 +2218,19 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="H5" s="27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -2244,10 +2244,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="27"/>
@@ -2263,10 +2263,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="27"/>
@@ -2282,10 +2282,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="27"/>
@@ -2301,10 +2301,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="27"/>
@@ -2317,13 +2317,13 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="27"/>
@@ -2339,10 +2339,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="27"/>
@@ -2358,10 +2358,10 @@
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="27"/>
@@ -2377,10 +2377,10 @@
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="27"/>
@@ -2396,10 +2396,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="27"/>
@@ -2409,16 +2409,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="27"/>
@@ -2434,10 +2434,10 @@
         <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="27"/>
@@ -2447,16 +2447,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>103</v>
-      </c>
       <c r="E17" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="31"/>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="C20" s="51"/>
       <c r="D20" s="47" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
@@ -2508,7 +2508,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
@@ -2522,19 +2522,19 @@
         <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
@@ -2548,16 +2548,16 @@
         <v>81</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
@@ -2565,22 +2565,22 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
@@ -2594,10 +2594,10 @@
         <v>43</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="33"/>
@@ -2615,10 +2615,10 @@
         <v>44</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="33"/>
@@ -2636,10 +2636,10 @@
         <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="27"/>
@@ -2655,10 +2655,10 @@
         <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="27"/>
@@ -2668,16 +2668,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="29" t="s">
-        <v>99</v>
-      </c>
       <c r="E30" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="35"/>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="C33" s="51"/>
       <c r="D33" s="47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="C34" s="53"/>
       <c r="D34" s="44" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
@@ -2739,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
@@ -2747,22 +2747,22 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="H36" s="27" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2770,21 +2770,21 @@
         <v>2</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G37" s="30"/>
       <c r="H37" s="31"/>
       <c r="I37" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C40" s="51"/>
       <c r="D40" s="47" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
@@ -2843,7 +2843,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
@@ -2857,19 +2857,19 @@
         <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2883,15 +2883,15 @@
         <v>79</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G44" s="30"/>
       <c r="H44" s="31"/>
       <c r="I44" s="16" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="C47" s="51"/>
       <c r="D47" s="47" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
@@ -2950,7 +2950,7 @@
         <v>7</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
@@ -2964,19 +2964,19 @@
         <v>49</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
@@ -2990,16 +2990,16 @@
         <v>42</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="18" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3013,10 +3013,10 @@
         <v>46</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G52" s="29"/>
       <c r="H52" s="35"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="C55" s="51"/>
       <c r="D55" s="47" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
@@ -3069,7 +3069,7 @@
         <v>7</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
@@ -3077,25 +3077,25 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
@@ -3109,16 +3109,16 @@
         <v>42</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I59" s="16"/>
     </row>
@@ -3127,16 +3127,16 @@
         <v>3</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G60" s="29"/>
       <c r="H60" s="35"/>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="C63" s="51"/>
       <c r="D63" s="47" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E63" s="48"/>
       <c r="F63" s="48"/>
@@ -3179,7 +3179,7 @@
       <c r="G64" s="45"/>
       <c r="H64" s="46"/>
       <c r="I64" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
@@ -3202,7 +3202,7 @@
         <v>7</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
@@ -3210,25 +3210,25 @@
         <v>1</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="H66" s="27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I66" s="36" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
@@ -3242,16 +3242,16 @@
         <v>13</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H67" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
@@ -3265,16 +3265,16 @@
         <v>42</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
@@ -3288,16 +3288,16 @@
         <v>50</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3311,10 +3311,10 @@
         <v>61</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G70" s="37"/>
       <c r="H70" s="31"/>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="C73" s="51"/>
       <c r="D73" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E73" s="48"/>
       <c r="F73" s="48"/>
@@ -3378,7 +3378,7 @@
         <v>7</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
@@ -3392,19 +3392,19 @@
         <v>57</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="I76" s="36" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
@@ -3418,16 +3418,16 @@
         <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
@@ -3441,16 +3441,16 @@
         <v>66</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78" s="27" t="s">
         <v>229</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
@@ -3458,22 +3458,22 @@
         <v>4</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H79" s="27" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
@@ -3487,10 +3487,10 @@
         <v>58</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="27"/>
@@ -3500,16 +3500,16 @@
         <v>6</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="27"/>
@@ -3525,10 +3525,10 @@
         <v>63</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="27"/>
@@ -3538,16 +3538,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="27"/>
@@ -3560,13 +3560,13 @@
         <v>29</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="27"/>
@@ -3576,16 +3576,16 @@
         <v>10</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="27"/>
@@ -3601,10 +3601,10 @@
         <v>64</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="27"/>
@@ -3620,10 +3620,10 @@
         <v>65</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G87" s="30"/>
       <c r="H87" s="31"/>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="C90" s="55"/>
       <c r="D90" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E90" s="62"/>
       <c r="F90" s="62"/>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="C91" s="57"/>
       <c r="D91" s="44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E91" s="45"/>
       <c r="F91" s="45"/>
@@ -3684,7 +3684,7 @@
         <v>7</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
@@ -3692,25 +3692,25 @@
         <v>1</v>
       </c>
       <c r="C93" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="E93" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G93" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>141</v>
-      </c>
       <c r="H93" s="40" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I93" s="43" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
@@ -3724,16 +3724,16 @@
         <v>57</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
@@ -3747,16 +3747,16 @@
         <v>42</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H95" s="27" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I95" s="16"/>
     </row>
@@ -3771,16 +3771,16 @@
         <v>50</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H96" s="27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3794,15 +3794,15 @@
         <v>61</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F97" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G97" s="37"/>
       <c r="H97" s="31"/>
       <c r="I97" s="19" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C100" s="61"/>
       <c r="D100" s="64" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E100" s="64"/>
       <c r="F100" s="64"/>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="C101" s="59"/>
       <c r="D101" s="66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E101" s="67"/>
       <c r="F101" s="67"/>
@@ -3869,7 +3869,7 @@
         <v>7</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.3">
@@ -3877,25 +3877,25 @@
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G103" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="H103" s="27" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3903,21 +3903,21 @@
         <v>2</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F104" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G104" s="42"/>
       <c r="H104" s="31"/>
       <c r="I104" s="19" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.3">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="C107" s="55"/>
       <c r="D107" s="47" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E107" s="48"/>
       <c r="F107" s="48"/>
@@ -3976,7 +3976,7 @@
         <v>7</v>
       </c>
       <c r="H109" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.3">
@@ -3990,19 +3990,19 @@
         <v>66</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G110" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G110" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="H110" s="27" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4013,18 +4013,18 @@
         <v>69</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G111" s="42"/>
       <c r="H111" s="31"/>
       <c r="I111" s="4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C114" s="51"/>
       <c r="D114" s="47" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E114" s="48"/>
       <c r="F114" s="48"/>
@@ -4074,7 +4074,7 @@
         <v>7</v>
       </c>
       <c r="H116" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.3">
@@ -4088,19 +4088,19 @@
         <v>77</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H117" s="27" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="I117" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.3">
@@ -4114,16 +4114,16 @@
         <v>13</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H118" s="27" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.3">
@@ -4137,10 +4137,10 @@
         <v>78</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="27"/>
@@ -4156,15 +4156,15 @@
         <v>80</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="27"/>
       <c r="I120" s="4" t="s">
-        <v>154</v>
+        <v>258</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.3">
@@ -4178,15 +4178,15 @@
         <v>94</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="27"/>
       <c r="I121" s="4" t="s">
-        <v>96</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.3">
@@ -4200,10 +4200,10 @@
         <v>83</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="27"/>
@@ -4219,10 +4219,10 @@
         <v>84</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="27"/>
@@ -4238,10 +4238,10 @@
         <v>85</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F124" s="30" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G124" s="30"/>
       <c r="H124" s="31"/>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="C127" s="51"/>
       <c r="D127" s="47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E127" s="48"/>
       <c r="F127" s="48"/>
@@ -4293,7 +4293,7 @@
         <v>7</v>
       </c>
       <c r="H129" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.3">
@@ -4307,19 +4307,19 @@
         <v>90</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H130" s="27" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I130" s="19" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.3">
@@ -4333,16 +4333,16 @@
         <v>42</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H131" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.3">
@@ -4356,16 +4356,16 @@
         <v>57</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H132" s="27" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
@@ -4379,10 +4379,10 @@
         <v>91</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="27"/>
@@ -4398,10 +4398,10 @@
         <v>92</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F134" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G134" s="29"/>
       <c r="H134" s="35"/>

--- a/joeunmall_자료/joeun_테이블설계.xlsx
+++ b/joeunmall_자료/joeun_테이블설계.xlsx
@@ -558,15 +558,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VARCHAR2(10 CHAR)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_PRODUCT_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -574,19 +598,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제유형번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_METHOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE DEFAULT SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CHAR(5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주문상품번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_PRODUCT_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
+    <t>상품옵션번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_ADDRESS_DETAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE DEFAULT SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STATE_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매상태정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STATE_INDEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -594,27 +710,246 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>판매상태번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매상태정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STATE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매상태번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STATE_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_CATEGORY_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_OPTION_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_IMAGE_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CART_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_PRODUCT_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INQUIRY_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력형식</t>
+  </si>
+  <si>
+    <t>입력형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매중, 판매종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'카테고리 번호 2자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제유형번호</t>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿0000000_CA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿000000_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿000000_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000_OP0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'상품번호' (+) _REV (+) '해당 상품의 리뷰 등록 순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'고객번호' (+) _CA (+) '장바구니 번호 1자리'  (장바구니 번호는 1~5까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 또는 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿000000_000_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿00_00_000_REV000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'주문일자 6자리'_'주문일자의 주문순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿000000_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'가입년도 4자리' (+) '해당년도 가입 순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_STATE_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_TBL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -622,158 +957,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAYMENT_METHOD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE DEFAULT SYSDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(100 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(50 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품옵션번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_ADDRESS_DETAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE DEFAULT SYSDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_CATEGORY_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_OPTION_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_IMAGE_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CART_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_PRODUCT_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INQUIRY_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REVIEW_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력형식</t>
-  </si>
-  <si>
-    <t>입력형식</t>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -781,47 +969,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>판매중, 판매종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'카테고리 번호 2자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿0000000_CA0</t>
+    <t>0 또는 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 있는 상품개수를 복사해와야함, FK로 했을 시 장바구니가 사라지면 주문한 상품수량을 알 수 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'상품등록연도 2자리'_'상품 카테고리 번호 2자리'_'상품 등록 순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티셔츠, 팬츠/스커트, 원피스, 니트/가디건, 자켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'상품번호' (+) _OP (+) '상품 옵션번호 1자리'  (상품 옵션번호는 1~5까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 한종류당 장바구니 한개씩 / 고객당 장바구니상품 5개까지만 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'주문번호'_'주문상품 번호 1자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY (+) '결제유형번호'  (결제유형번호는 1~3까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무통장입금, 신용카드, 휴대폰결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA (+) '진행상태번호'  (진행상태번호는 1~9까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 확인중, 상품준비, 배송처리, 배송완료, 주문취소, 반품 처리중, 환불완료, 교환 처리중, 교환완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'상품번호'_'상품 이미지 등록 순서 1자리'  (상품 이미지는 1~5까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000_OP0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -829,226 +1045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>﻿000000_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000_OP0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'상품번호' (+) _REV (+) '해당 상품의 리뷰 등록 순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'고객번호' (+) _CA (+) '장바구니 번호 1자리'  (장바구니 번호는 1~5까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 또는 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000_000_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿00_00_000_REV000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'주문일자 6자리'_'주문일자의 주문순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'가입년도 4자리' (+) '해당년도 가입 순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STA0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_STATE_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYMENT_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYMENT_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 또는 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 있는 상품개수를 복사해와야함, FK로 했을 시 장바구니가 사라지면 주문한 상품수량을 알 수 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'상품등록연도 2자리'_'상품 카테고리 번호 2자리'_'상품 등록 순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티셔츠, 팬츠/스커트, 원피스, 니트/가디건, 자켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'상품번호' (+) _OP (+) '상품 옵션번호 1자리'  (상품 옵션번호는 1~5까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 한종류당 장바구니 한개씩 / 고객당 장바구니상품 5개까지만 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'주문번호'_'주문상품 번호 1자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY (+) '결제유형번호'  (결제유형번호는 1~3까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무통장입금, 신용카드, 휴대폰결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STA (+) '진행상태번호'  (진행상태번호는 1~9까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자 확인중, 상품준비, 배송처리, 배송완료, 주문취소, 반품 처리중, 환불완료, 교환 처리중, 교환완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'상품번호'_'상품 이미지 등록 순서 1자리'  (상품 이미지는 1~5까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000_OP0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>﻿'문의일자 6자리' (+) '해당일자 문의순서 3자리'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1058,6 +1054,10 @@
   </si>
   <si>
     <t>상품, 교환/환불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(15 CHAR)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1766,6 +1766,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1776,51 +1821,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2139,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2159,12 +2159,12 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
@@ -2172,10 +2172,10 @@
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="44" t="s">
         <v>8</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -2227,10 +2227,10 @@
         <v>104</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -2320,7 +2320,7 @@
         <v>124</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>103</v>
@@ -2339,7 +2339,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>103</v>
@@ -2358,7 +2358,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>103</v>
@@ -2377,7 +2377,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>105</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>103</v>
@@ -2415,7 +2415,7 @@
         <v>107</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>108</v>
@@ -2463,12 +2463,12 @@
     </row>
     <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
@@ -2476,10 +2476,10 @@
       <c r="H20" s="49"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="44" t="s">
         <v>30</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
@@ -2531,10 +2531,10 @@
         <v>117</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
@@ -2548,7 +2548,7 @@
         <v>81</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>103</v>
@@ -2557,7 +2557,7 @@
         <v>128</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
@@ -2565,13 +2565,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>103</v>
@@ -2580,7 +2580,7 @@
         <v>113</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
@@ -2694,12 +2694,12 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="51"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
@@ -2707,12 +2707,12 @@
       <c r="H33" s="49"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="53"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
@@ -2739,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
@@ -2747,13 +2747,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>103</v>
@@ -2762,7 +2762,7 @@
         <v>104</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2770,13 +2770,13 @@
         <v>2</v>
       </c>
       <c r="C37" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="D37" s="30" t="s">
-        <v>174</v>
-      </c>
       <c r="E37" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>103</v>
@@ -2784,7 +2784,7 @@
       <c r="G37" s="30"/>
       <c r="H37" s="31"/>
       <c r="I37" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
@@ -2798,12 +2798,12 @@
     </row>
     <row r="39" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
@@ -2811,10 +2811,10 @@
       <c r="H40" s="49"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="53"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="44" t="s">
         <v>38</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
@@ -2857,7 +2857,7 @@
         <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>103</v>
@@ -2866,10 +2866,10 @@
         <v>117</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2891,7 +2891,7 @@
       <c r="G44" s="30"/>
       <c r="H44" s="31"/>
       <c r="I44" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
@@ -2905,12 +2905,12 @@
     </row>
     <row r="46" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="51"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
@@ -2918,10 +2918,10 @@
       <c r="H47" s="49"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="53"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="44" t="s">
         <v>41</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>7</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
@@ -2964,7 +2964,7 @@
         <v>49</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>103</v>
@@ -2973,10 +2973,10 @@
         <v>114</v>
       </c>
       <c r="H50" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="I50" s="36" t="s">
         <v>251</v>
-      </c>
-      <c r="I50" s="36" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
@@ -2996,10 +2996,10 @@
         <v>103</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H51" s="27" t="s">
         <v>192</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="18" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3024,12 +3024,12 @@
     </row>
     <row r="54" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="51"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
@@ -3037,10 +3037,10 @@
       <c r="H55" s="49"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="53"/>
+      <c r="C56" s="68"/>
       <c r="D56" s="44" t="s">
         <v>40</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>7</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
@@ -3077,13 +3077,13 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>103</v>
@@ -3092,10 +3092,10 @@
         <v>114</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
@@ -3115,10 +3115,10 @@
         <v>103</v>
       </c>
       <c r="G59" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H59" s="27" t="s">
         <v>194</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>195</v>
       </c>
       <c r="I59" s="16"/>
     </row>
@@ -3133,7 +3133,7 @@
         <v>99</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="F60" s="29" t="s">
         <v>103</v>
@@ -3154,12 +3154,12 @@
     </row>
     <row r="62" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E63" s="48"/>
       <c r="F63" s="48"/>
@@ -3167,10 +3167,10 @@
       <c r="H63" s="49"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="53"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="44" t="s">
         <v>59</v>
       </c>
@@ -3179,7 +3179,7 @@
       <c r="G64" s="45"/>
       <c r="H64" s="46"/>
       <c r="I64" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
@@ -3202,7 +3202,7 @@
         <v>7</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
@@ -3216,7 +3216,7 @@
         <v>119</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>103</v>
@@ -3225,10 +3225,10 @@
         <v>120</v>
       </c>
       <c r="H66" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I66" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
@@ -3248,10 +3248,10 @@
         <v>103</v>
       </c>
       <c r="G67" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H67" s="27" t="s">
         <v>197</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
@@ -3274,7 +3274,7 @@
         <v>113</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
@@ -3288,7 +3288,7 @@
         <v>50</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>103</v>
@@ -3297,7 +3297,7 @@
         <v>113</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3311,7 +3311,7 @@
         <v>61</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F70" s="30" t="s">
         <v>103</v>
@@ -3330,12 +3330,12 @@
     </row>
     <row r="72" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="51"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E73" s="48"/>
       <c r="F73" s="48"/>
@@ -3343,10 +3343,10 @@
       <c r="H73" s="49"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="53"/>
+      <c r="C74" s="68"/>
       <c r="D74" s="44" t="s">
         <v>51</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>7</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
@@ -3392,7 +3392,7 @@
         <v>57</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>103</v>
@@ -3401,10 +3401,10 @@
         <v>117</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I76" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
@@ -3427,7 +3427,7 @@
         <v>113</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
@@ -3441,16 +3441,16 @@
         <v>66</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H78" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
@@ -3458,22 +3458,22 @@
         <v>4</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H79" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
@@ -3500,13 +3500,13 @@
         <v>6</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>103</v>
@@ -3525,7 +3525,7 @@
         <v>63</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>103</v>
@@ -3544,7 +3544,7 @@
         <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>103</v>
@@ -3563,7 +3563,7 @@
         <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>103</v>
@@ -3579,7 +3579,7 @@
         <v>101</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>125</v>
@@ -3601,7 +3601,7 @@
         <v>64</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>103</v>
@@ -3620,10 +3620,10 @@
         <v>65</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G87" s="30"/>
       <c r="H87" s="31"/>
@@ -3639,25 +3639,25 @@
     </row>
     <row r="89" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B90" s="54" t="s">
+      <c r="B90" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="55"/>
-      <c r="D90" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="62"/>
-      <c r="H90" s="63"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="59"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="57"/>
+      <c r="C91" s="55"/>
       <c r="D91" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E91" s="45"/>
       <c r="F91" s="45"/>
@@ -3684,7 +3684,7 @@
         <v>7</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
@@ -3692,25 +3692,25 @@
         <v>1</v>
       </c>
       <c r="C93" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="E93" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G93" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="H93" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="F93" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H93" s="40" t="s">
-        <v>215</v>
-      </c>
       <c r="I93" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
@@ -3724,16 +3724,16 @@
         <v>57</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>103</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
@@ -3756,7 +3756,7 @@
         <v>113</v>
       </c>
       <c r="H95" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I95" s="16"/>
     </row>
@@ -3771,7 +3771,7 @@
         <v>50</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>103</v>
@@ -3780,7 +3780,7 @@
         <v>113</v>
       </c>
       <c r="H96" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3794,7 +3794,7 @@
         <v>61</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F97" s="30" t="s">
         <v>103</v>
@@ -3802,7 +3802,7 @@
       <c r="G97" s="37"/>
       <c r="H97" s="31"/>
       <c r="I97" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
@@ -3824,30 +3824,30 @@
       <c r="H99" s="21"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="60" t="s">
+      <c r="B100" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="61"/>
-      <c r="D100" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="64"/>
-      <c r="H100" s="65"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="61"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="59"/>
-      <c r="D101" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="68"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="64"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="24" t="s">
@@ -3869,7 +3869,7 @@
         <v>7</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.3">
@@ -3877,25 +3877,25 @@
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G103" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="H103" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3903,13 +3903,13 @@
         <v>2</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F104" s="30" t="s">
         <v>103</v>
@@ -3917,7 +3917,7 @@
       <c r="G104" s="42"/>
       <c r="H104" s="31"/>
       <c r="I104" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.3">
@@ -3931,12 +3931,12 @@
     </row>
     <row r="106" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="54" t="s">
+      <c r="B107" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="55"/>
+      <c r="C107" s="53"/>
       <c r="D107" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E107" s="48"/>
       <c r="F107" s="48"/>
@@ -3944,10 +3944,10 @@
       <c r="H107" s="49"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B108" s="56" t="s">
+      <c r="B108" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="57"/>
+      <c r="C108" s="55"/>
       <c r="D108" s="44" t="s">
         <v>68</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>7</v>
       </c>
       <c r="H109" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.3">
@@ -3990,19 +3990,19 @@
         <v>66</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G110" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G110" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="H110" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4016,7 +4016,7 @@
         <v>100</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F111" s="30" t="s">
         <v>103</v>
@@ -4024,17 +4024,17 @@
       <c r="G111" s="42"/>
       <c r="H111" s="31"/>
       <c r="I111" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="114" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B114" s="50" t="s">
+      <c r="B114" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="51"/>
+      <c r="C114" s="66"/>
       <c r="D114" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E114" s="48"/>
       <c r="F114" s="48"/>
@@ -4042,10 +4042,10 @@
       <c r="H114" s="49"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B115" s="52" t="s">
+      <c r="B115" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="53"/>
+      <c r="C115" s="68"/>
       <c r="D115" s="44" t="s">
         <v>70</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>7</v>
       </c>
       <c r="H116" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.3">
@@ -4088,7 +4088,7 @@
         <v>77</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>103</v>
@@ -4097,10 +4097,10 @@
         <v>117</v>
       </c>
       <c r="H117" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I117" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.3">
@@ -4123,7 +4123,7 @@
         <v>113</v>
       </c>
       <c r="H118" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.3">
@@ -4137,7 +4137,7 @@
         <v>78</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>103</v>
@@ -4156,7 +4156,7 @@
         <v>80</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>103</v>
@@ -4164,7 +4164,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="27"/>
       <c r="I120" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.3">
@@ -4178,7 +4178,7 @@
         <v>94</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>103</v>
@@ -4186,7 +4186,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="27"/>
       <c r="I121" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.3">
@@ -4241,19 +4241,19 @@
         <v>131</v>
       </c>
       <c r="F124" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G124" s="30"/>
       <c r="H124" s="31"/>
     </row>
     <row r="126" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="127" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B127" s="50" t="s">
+      <c r="B127" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C127" s="51"/>
+      <c r="C127" s="66"/>
       <c r="D127" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E127" s="48"/>
       <c r="F127" s="48"/>
@@ -4261,10 +4261,10 @@
       <c r="H127" s="49"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B128" s="52" t="s">
+      <c r="B128" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C128" s="53"/>
+      <c r="C128" s="68"/>
       <c r="D128" s="44" t="s">
         <v>86</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>7</v>
       </c>
       <c r="H129" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.3">
@@ -4307,19 +4307,19 @@
         <v>90</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H130" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I130" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.3">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>103</v>
@@ -4342,7 +4342,7 @@
         <v>113</v>
       </c>
       <c r="H131" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.3">
@@ -4356,7 +4356,7 @@
         <v>57</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>103</v>
@@ -4365,7 +4365,7 @@
         <v>113</v>
       </c>
       <c r="H132" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
@@ -4379,7 +4379,7 @@
         <v>91</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>103</v>
@@ -4398,7 +4398,7 @@
         <v>92</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F134" s="29" t="s">
         <v>103</v>
@@ -4410,49 +4410,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="B2:C2"/>
@@ -4462,6 +4419,49 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/joeunmall_자료/joeun_테이블설계.xlsx
+++ b/joeunmall_자료/joeun_테이블설계.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="264">
   <si>
     <t>TABLE NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,10 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고객번호로 장바구니정보 가져옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INQUIRY_STATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,91 +418,634 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ORDER_STATE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ADDRESS_DETAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_ADDRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CART_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_MAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE DEFAULT SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1000 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_PRODUCT_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제유형번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_METHOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE DEFAULT SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품옵션번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_ADDRESS_DETAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE DEFAULT SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STATE_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매상태정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STATE_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매상태번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매상태정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STATE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매상태번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STATE_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_CATEGORY_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_OPTION_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_IMAGE_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CART_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_PRODUCT_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INQUIRY_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력형식</t>
+  </si>
+  <si>
+    <t>입력형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매중, 판매종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'카테고리 번호 2자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿0000000_CA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿000000_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000_OP0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'상품번호' (+) _REV (+) '해당 상품의 리뷰 등록 순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'고객번호' (+) _CA (+) '장바구니 번호 1자리'  (장바구니 번호는 1~5까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 또는 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿00_00_000_REV000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'가입년도 4자리' (+) '해당년도 가입 순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_STATE_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 또는 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 있는 상품개수를 복사해와야함, FK로 했을 시 장바구니가 사라지면 주문한 상품수량을 알 수 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'상품등록연도 2자리'_'상품 카테고리 번호 2자리'_'상품 등록 순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티셔츠, 팬츠/스커트, 원피스, 니트/가디건, 자켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'상품번호' (+) _OP (+) '상품 옵션번호 1자리'  (상품 옵션번호는 1~5까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 한종류당 장바구니 한개씩 / 고객당 장바구니상품 5개까지만 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY (+) '결제유형번호'  (결제유형번호는 1~3까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무통장입금, 신용카드, 휴대폰결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA (+) '진행상태번호'  (진행상태번호는 1~9까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 확인중, 상품준비, 배송처리, 배송완료, 주문취소, 반품 처리중, 환불완료, 교환 처리중, 교환완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'상품번호'_'상품 이미지 등록 순서 1자리'  (상품 이미지는 1~5까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000_OP0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'문의일자 6자리' (+) '해당일자 문의순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의접수, 답변완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품, 교환/환불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(15 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'주문일자 6자리'_'고객번호 7자리'_'고객의 당일 주문 순서 1자리'_OR (+) '주문상품번호'  (주문상품번호는 1~5까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'주문일자 6자리'_'고객번호 7자리'_'고객의 당일 주문 순서 1자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000_0000000_0_OR0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PRODUCT_OPTION_VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ORDER_STATE_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ADDRESS_DETAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우편번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_ADDRESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(1000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CART_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
+    <t>장바구니에서 선택된 상품들이 주문상품으로 넘어옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문이 완료될 경우 데이터가 저장됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문이 완료되지 않았을 경우, 주문되지 않은 주문상품은 데이터가 지워짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문이 완료되지 않았을 경우, 1) 주문테이블에는 아무것도 저장되지 않고, 2) 주문상품테이블에 저장된 데이터가 삭제됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※장바구니 -&gt; 주문상품 -&gt; 주문 테이블의 순서로 데이터가 저장됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -514,382 +1053,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(60)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_MAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE DEFAULT SYSDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(1000 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상품번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_PRODUCT_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제유형번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYMENT_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYMENT_METHOD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE DEFAULT SYSDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(100 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(50 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품옵션번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_ADDRESS_DETAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE DEFAULT SYSDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_CATEGORY_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_OPTION_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_IMAGE_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CART_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_PRODUCT_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INQUIRY_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REVIEW_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력형식</t>
-  </si>
-  <si>
-    <t>입력형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매중, 판매종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'카테고리 번호 2자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿0000000_CA0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000_OP0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'상품번호' (+) _REV (+) '해당 상품의 리뷰 등록 순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'고객번호' (+) _CA (+) '장바구니 번호 1자리'  (장바구니 번호는 1~5까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 또는 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000_000_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿00_00_000_REV000</t>
+    <t>000000_0000000_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -897,123 +1065,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NCHAR(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'주문일자 6자리'_'주문일자의 주문순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'가입년도 4자리' (+) '해당년도 가입 순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STA0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_STATE_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYMENT_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYMENT_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 또는 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 있는 상품개수를 복사해와야함, FK로 했을 시 장바구니가 사라지면 주문한 상품수량을 알 수 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'상품등록연도 2자리'_'상품 카테고리 번호 2자리'_'상품 등록 순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티셔츠, 팬츠/스커트, 원피스, 니트/가디건, 자켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'상품번호' (+) _OP (+) '상품 옵션번호 1자리'  (상품 옵션번호는 1~5까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 한종류당 장바구니 한개씩 / 고객당 장바구니상품 5개까지만 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'주문번호'_'주문상품 번호 1자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY (+) '결제유형번호'  (결제유형번호는 1~3까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무통장입금, 신용카드, 휴대폰결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STA (+) '진행상태번호'  (진행상태번호는 1~9까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자 확인중, 상품준비, 배송처리, 배송완료, 주문취소, 반품 처리중, 환불완료, 교환 처리중, 교환완료</t>
+    <t>NCHAR(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(9)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1021,43 +1077,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PRODUCT_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'상품번호'_'상품 이미지 등록 순서 1자리'  (상품 이미지는 1~5까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000_OP0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'문의일자 6자리' (+) '해당일자 문의순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의접수, 답변완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품, 교환/환불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(15 CHAR)</t>
+    <t>NCHAR(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,7 +1085,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,6 +1140,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1135,7 +1163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1288,17 +1316,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1685,76 +1702,79 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1763,43 +1783,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1808,16 +1825,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2139,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2152,8 +2169,8 @@
     <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="101.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="114.25" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2164,7 +2181,7 @@
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="47" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
@@ -2185,7 +2202,7 @@
       <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -2203,12 +2220,12 @@
       <c r="G4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>186</v>
+      <c r="H4" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2218,23 +2235,23 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>199</v>
+        <v>102</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>195</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2244,16 +2261,16 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="27"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2263,16 +2280,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="27"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2282,16 +2299,16 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="27"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2301,35 +2318,35 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="27"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="27"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2339,16 +2356,16 @@
         <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="27"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2358,16 +2375,16 @@
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="27"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2377,16 +2394,16 @@
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="27"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2396,35 +2413,35 @@
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="25">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="26">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="27"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2434,32 +2451,32 @@
         <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="27"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>13</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
+      <c r="C17" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -2468,7 +2485,7 @@
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="47" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
@@ -2489,7 +2506,7 @@
       <c r="H21" s="46"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -2507,12 +2524,12 @@
       <c r="G22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>185</v>
+      <c r="H22" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2522,23 +2539,23 @@
         <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>127</v>
+        <v>261</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>235</v>
+        <v>115</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>224</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2548,43 +2565,43 @@
         <v>81</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>236</v>
+        <v>125</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>237</v>
+        <v>111</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="32">
+      <c r="B26" s="31">
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2594,18 +2611,18 @@
         <v>43</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="33"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="32">
+      <c r="B27" s="31">
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2615,18 +2632,18 @@
         <v>44</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="33"/>
+      <c r="H27" s="32"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2636,16 +2653,16 @@
         <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="27"/>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2655,32 +2672,32 @@
         <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="27"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="2:10" s="18" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="34">
+      <c r="B30" s="33">
         <v>8</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="35"/>
+      <c r="E30" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="34"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
     </row>
@@ -2699,7 +2716,7 @@
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="47" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
@@ -2712,7 +2729,7 @@
       </c>
       <c r="C34" s="68"/>
       <c r="D34" s="44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
@@ -2720,7 +2737,7 @@
       <c r="H34" s="46"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -2738,53 +2755,53 @@
       <c r="G35" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="25" t="s">
-        <v>185</v>
+      <c r="H35" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="27">
+        <v>2</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="28">
-        <v>2</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31"/>
+      <c r="E37" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
@@ -2803,7 +2820,7 @@
       </c>
       <c r="C40" s="66"/>
       <c r="D40" s="47" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
@@ -2824,7 +2841,7 @@
       <c r="H41" s="46"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="12" t="s">
@@ -2842,12 +2859,12 @@
       <c r="G42" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="25" t="s">
-        <v>185</v>
+      <c r="H42" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="26">
+      <c r="B43" s="25">
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2857,41 +2874,41 @@
         <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="I43" s="36" t="s">
-        <v>189</v>
+        <v>115</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="28">
+      <c r="B44" s="27">
         <v>2</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="31"/>
+      <c r="E44" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="16" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
@@ -2910,7 +2927,7 @@
       </c>
       <c r="C47" s="66"/>
       <c r="D47" s="47" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
@@ -2931,7 +2948,7 @@
       <c r="H48" s="46"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="12" t="s">
@@ -2949,12 +2966,12 @@
       <c r="G49" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="25" t="s">
-        <v>185</v>
+      <c r="H49" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2964,23 +2981,23 @@
         <v>49</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="I50" s="36" t="s">
-        <v>251</v>
+        <v>112</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="26">
+      <c r="B51" s="25">
         <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2990,36 +3007,36 @@
         <v>42</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="18" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="34">
+      <c r="B52" s="33">
         <v>3</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="35"/>
+      <c r="E52" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="28"/>
+      <c r="H52" s="34"/>
       <c r="J52" s="16"/>
     </row>
     <row r="54" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3029,7 +3046,7 @@
       </c>
       <c r="C55" s="66"/>
       <c r="D55" s="47" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
@@ -3050,7 +3067,7 @@
       <c r="H56" s="46"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C57" s="12" t="s">
@@ -3068,38 +3085,38 @@
       <c r="G57" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="25" t="s">
-        <v>195</v>
+      <c r="H57" s="24" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="26">
+      <c r="B58" s="25">
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>252</v>
+        <v>112</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>240</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="26">
+      <c r="B59" s="25">
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3109,37 +3126,37 @@
         <v>42</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="I59" s="16"/>
     </row>
     <row r="60" spans="2:10" s="18" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="34">
+      <c r="B60" s="33">
         <v>3</v>
       </c>
-      <c r="C60" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="35"/>
+      <c r="C60" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="28"/>
+      <c r="H60" s="34"/>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
     </row>
@@ -3159,7 +3176,7 @@
       </c>
       <c r="C63" s="66"/>
       <c r="D63" s="47" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E63" s="48"/>
       <c r="F63" s="48"/>
@@ -3179,11 +3196,11 @@
       <c r="G64" s="45"/>
       <c r="H64" s="46"/>
       <c r="I64" s="4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="12" t="s">
@@ -3201,38 +3218,38 @@
       <c r="G65" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H65" s="25" t="s">
-        <v>185</v>
+      <c r="H65" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="26">
+      <c r="B66" s="25">
         <v>1</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="I66" s="36" t="s">
-        <v>208</v>
+      <c r="H66" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I66" s="35" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="26">
+      <c r="B67" s="25">
         <v>2</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -3242,20 +3259,20 @@
         <v>13</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>197</v>
+        <v>192</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="26">
+      <c r="B68" s="25">
         <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3265,20 +3282,20 @@
         <v>42</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H68" s="27" t="s">
-        <v>187</v>
+        <v>111</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="26">
+      <c r="B69" s="25">
         <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -3288,36 +3305,36 @@
         <v>50</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H69" s="27" t="s">
-        <v>204</v>
+        <v>111</v>
+      </c>
+      <c r="H69" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="28">
+      <c r="B70" s="27">
         <v>5</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E70" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="F70" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G70" s="37"/>
-      <c r="H70" s="31"/>
+      <c r="E70" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" s="36"/>
+      <c r="H70" s="30"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="3"/>
@@ -3335,12 +3352,15 @@
       </c>
       <c r="C73" s="66"/>
       <c r="D73" s="47" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E73" s="48"/>
       <c r="F73" s="48"/>
       <c r="G73" s="48"/>
       <c r="H73" s="49"/>
+      <c r="I73" s="4" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="67" t="s">
@@ -3355,11 +3375,11 @@
       <c r="G74" s="45"/>
       <c r="H74" s="46"/>
       <c r="I74" s="4" t="s">
-        <v>93</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C75" s="12" t="s">
@@ -3377,12 +3397,12 @@
       <c r="G75" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H75" s="25" t="s">
-        <v>185</v>
+      <c r="H75" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="26">
+      <c r="B76" s="25">
         <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3392,23 +3412,23 @@
         <v>57</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="I76" s="36" t="s">
-        <v>224</v>
+        <v>115</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="I76" s="35" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="26">
+      <c r="B77" s="25">
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -3418,20 +3438,20 @@
         <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H77" s="27" t="s">
-        <v>226</v>
+        <v>111</v>
+      </c>
+      <c r="H77" s="26" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="26">
+      <c r="B78" s="25">
         <v>3</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3441,43 +3461,43 @@
         <v>66</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>228</v>
+        <v>138</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="26">
+      <c r="B79" s="25">
         <v>4</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>207</v>
+        <v>111</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B80" s="26">
+      <c r="B80" s="25">
         <v>5</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -3487,35 +3507,35 @@
         <v>58</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G80" s="2"/>
-      <c r="H80" s="27"/>
+      <c r="H80" s="26"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="26">
+      <c r="B81" s="25">
         <v>6</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G81" s="2"/>
-      <c r="H81" s="27"/>
+      <c r="H81" s="26"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B82" s="26">
+      <c r="B82" s="25">
         <v>7</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -3525,73 +3545,73 @@
         <v>63</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G82" s="2"/>
-      <c r="H82" s="27"/>
+      <c r="H82" s="26"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="26">
+      <c r="B83" s="25">
         <v>8</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G83" s="2"/>
-      <c r="H83" s="27"/>
+      <c r="H83" s="26"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="26">
+      <c r="B84" s="25">
         <v>9</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="27"/>
+      <c r="H84" s="26"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85" s="26">
+      <c r="B85" s="25">
         <v>10</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G85" s="2"/>
-      <c r="H85" s="27"/>
+      <c r="H85" s="26"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B86" s="26">
+      <c r="B86" s="25">
         <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -3601,32 +3621,32 @@
         <v>64</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="27"/>
+      <c r="H86" s="26"/>
     </row>
     <row r="87" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="28">
+      <c r="B87" s="27">
         <v>12</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D87" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E87" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="F87" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="G87" s="30"/>
-      <c r="H87" s="31"/>
+      <c r="E87" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G87" s="29"/>
+      <c r="H87" s="30"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="3"/>
@@ -3637,19 +3657,26 @@
       <c r="G88" s="4"/>
       <c r="H88" s="21"/>
     </row>
-    <row r="89" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I89" s="43" t="s">
+        <v>255</v>
+      </c>
+    </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C90" s="53"/>
       <c r="D90" s="58" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E90" s="58"/>
       <c r="F90" s="58"/>
       <c r="G90" s="58"/>
       <c r="H90" s="59"/>
+      <c r="I90" s="4" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="54" t="s">
@@ -3657,15 +3684,18 @@
       </c>
       <c r="C91" s="55"/>
       <c r="D91" s="44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E91" s="45"/>
       <c r="F91" s="45"/>
       <c r="G91" s="45"/>
       <c r="H91" s="46"/>
+      <c r="I91" s="4" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C92" s="7" t="s">
@@ -3683,61 +3713,61 @@
       <c r="G92" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H92" s="25" t="s">
-        <v>185</v>
+      <c r="H92" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B93" s="39">
+      <c r="B93" s="38">
         <v>1</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H93" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="I93" s="43" t="s">
-        <v>243</v>
+        <v>136</v>
+      </c>
+      <c r="H93" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="I93" s="42" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B94" s="41">
+      <c r="B94" s="40">
         <v>2</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>57</v>
+      <c r="C94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G94" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="H94" s="40" t="s">
-        <v>200</v>
+        <v>256</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H94" s="26" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B95" s="26">
+      <c r="B95" s="25">
         <v>3</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -3747,21 +3777,21 @@
         <v>42</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H95" s="27" t="s">
-        <v>203</v>
+        <v>111</v>
+      </c>
+      <c r="H95" s="26" t="s">
+        <v>197</v>
       </c>
       <c r="I95" s="16"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B96" s="26">
+      <c r="B96" s="25">
         <v>4</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -3771,38 +3801,38 @@
         <v>50</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H96" s="27" t="s">
-        <v>204</v>
+        <v>111</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="28">
+      <c r="B97" s="27">
         <v>5</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D97" s="30" t="s">
+      <c r="D97" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E97" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="F97" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G97" s="37"/>
-      <c r="H97" s="31"/>
+      <c r="E97" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F97" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G97" s="36"/>
+      <c r="H97" s="30"/>
       <c r="I97" s="19" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
@@ -3829,7 +3859,7 @@
       </c>
       <c r="C100" s="57"/>
       <c r="D100" s="60" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E100" s="60"/>
       <c r="F100" s="60"/>
@@ -3842,7 +3872,7 @@
       </c>
       <c r="C101" s="51"/>
       <c r="D101" s="62" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E101" s="63"/>
       <c r="F101" s="63"/>
@@ -3850,7 +3880,7 @@
       <c r="H101" s="64"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B102" s="24" t="s">
+      <c r="B102" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C102" s="12" t="s">
@@ -3868,56 +3898,56 @@
       <c r="G102" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H102" s="25" t="s">
-        <v>185</v>
+      <c r="H102" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B103" s="26">
+      <c r="B103" s="25">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H103" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="I103" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="27">
+        <v>2</v>
+      </c>
+      <c r="C104" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H103" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="I103" s="19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="28">
-        <v>2</v>
-      </c>
-      <c r="C104" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E104" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G104" s="42"/>
-      <c r="H104" s="31"/>
+      <c r="D104" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E104" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G104" s="41"/>
+      <c r="H104" s="30"/>
       <c r="I104" s="19" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.3">
@@ -3936,7 +3966,7 @@
       </c>
       <c r="C107" s="53"/>
       <c r="D107" s="47" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E107" s="48"/>
       <c r="F107" s="48"/>
@@ -3957,7 +3987,7 @@
       <c r="H108" s="46"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B109" s="24" t="s">
+      <c r="B109" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C109" s="12" t="s">
@@ -3975,12 +4005,12 @@
       <c r="G109" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H109" s="25" t="s">
-        <v>185</v>
+      <c r="H109" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B110" s="26">
+      <c r="B110" s="25">
         <v>1</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -3990,41 +4020,41 @@
         <v>66</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H110" s="27" t="s">
-        <v>228</v>
+        <v>141</v>
+      </c>
+      <c r="H110" s="26" t="s">
+        <v>217</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="28">
+      <c r="B111" s="27">
         <v>2</v>
       </c>
-      <c r="C111" s="30" t="s">
+      <c r="C111" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D111" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E111" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="F111" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G111" s="42"/>
-      <c r="H111" s="31"/>
+      <c r="D111" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E111" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G111" s="41"/>
+      <c r="H111" s="30"/>
       <c r="I111" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4034,7 +4064,7 @@
       </c>
       <c r="C114" s="66"/>
       <c r="D114" s="47" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E114" s="48"/>
       <c r="F114" s="48"/>
@@ -4055,7 +4085,7 @@
       <c r="H115" s="46"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="12" t="s">
@@ -4073,12 +4103,12 @@
       <c r="G116" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H116" s="25" t="s">
-        <v>185</v>
+      <c r="H116" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B117" s="26">
+      <c r="B117" s="25">
         <v>1</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -4088,23 +4118,23 @@
         <v>77</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H117" s="27" t="s">
-        <v>253</v>
+        <v>115</v>
+      </c>
+      <c r="H117" s="26" t="s">
+        <v>241</v>
       </c>
       <c r="I117" s="19" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B118" s="26">
+      <c r="B118" s="25">
         <v>2</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -4114,20 +4144,20 @@
         <v>13</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H118" s="27" t="s">
-        <v>254</v>
+        <v>111</v>
+      </c>
+      <c r="H118" s="26" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B119" s="26">
+      <c r="B119" s="25">
         <v>3</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -4137,16 +4167,16 @@
         <v>78</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G119" s="2"/>
-      <c r="H119" s="27"/>
+      <c r="H119" s="26"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B120" s="26">
+      <c r="B120" s="25">
         <v>4</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -4156,41 +4186,41 @@
         <v>80</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G120" s="2"/>
-      <c r="H120" s="27"/>
+      <c r="H120" s="26"/>
       <c r="I120" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B121" s="26">
+      <c r="B121" s="25">
         <v>5</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G121" s="2"/>
-      <c r="H121" s="27"/>
+      <c r="H121" s="26"/>
       <c r="I121" s="4" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B122" s="26">
+      <c r="B122" s="25">
         <v>6</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -4200,16 +4230,16 @@
         <v>83</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G122" s="2"/>
-      <c r="H122" s="27"/>
+      <c r="H122" s="26"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B123" s="26">
+      <c r="B123" s="25">
         <v>7</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -4219,32 +4249,32 @@
         <v>84</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G123" s="2"/>
-      <c r="H123" s="27"/>
+      <c r="H123" s="26"/>
     </row>
     <row r="124" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="28">
+      <c r="B124" s="27">
         <v>8</v>
       </c>
-      <c r="C124" s="30" t="s">
+      <c r="C124" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D124" s="30" t="s">
+      <c r="D124" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E124" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="F124" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="G124" s="30"/>
-      <c r="H124" s="31"/>
+      <c r="E124" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G124" s="29"/>
+      <c r="H124" s="30"/>
     </row>
     <row r="126" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="127" spans="2:9" x14ac:dyDescent="0.3">
@@ -4253,7 +4283,7 @@
       </c>
       <c r="C127" s="66"/>
       <c r="D127" s="47" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E127" s="48"/>
       <c r="F127" s="48"/>
@@ -4274,7 +4304,7 @@
       <c r="H128" s="46"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B129" s="24" t="s">
+      <c r="B129" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C129" s="12" t="s">
@@ -4292,12 +4322,12 @@
       <c r="G129" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H129" s="25" t="s">
-        <v>185</v>
+      <c r="H129" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B130" s="26">
+      <c r="B130" s="25">
         <v>1</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -4307,23 +4337,23 @@
         <v>90</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H130" s="27" t="s">
-        <v>216</v>
+        <v>150</v>
+      </c>
+      <c r="H130" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="I130" s="19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B131" s="26">
+      <c r="B131" s="25">
         <v>2</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -4333,20 +4363,20 @@
         <v>42</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H131" s="27" t="s">
-        <v>206</v>
+        <v>111</v>
+      </c>
+      <c r="H131" s="26" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B132" s="26">
+      <c r="B132" s="25">
         <v>3</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -4356,20 +4386,20 @@
         <v>57</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H132" s="27" t="s">
-        <v>202</v>
+        <v>111</v>
+      </c>
+      <c r="H132" s="26" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B133" s="26">
+      <c r="B133" s="25">
         <v>4</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -4379,32 +4409,32 @@
         <v>91</v>
       </c>
       <c r="E133" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G133" s="2"/>
+      <c r="H133" s="26"/>
+    </row>
+    <row r="134" spans="2:10" s="18" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="33">
+        <v>5</v>
+      </c>
+      <c r="C134" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D134" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E134" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G133" s="2"/>
-      <c r="H133" s="27"/>
-    </row>
-    <row r="134" spans="2:10" s="18" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="34">
-        <v>5</v>
-      </c>
-      <c r="C134" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D134" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E134" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F134" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G134" s="29"/>
-      <c r="H134" s="35"/>
+      <c r="F134" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G134" s="28"/>
+      <c r="H134" s="34"/>
       <c r="I134" s="16"/>
       <c r="J134" s="16"/>
     </row>

--- a/joeunmall_자료/joeun_테이블설계.xlsx
+++ b/joeunmall_자료/joeun_테이블설계.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="261">
   <si>
     <t>TABLE NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,10 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(1000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,7 +498,550 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(7)</t>
+    <t>VARCHAR2(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_MAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE DEFAULT SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1000 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_PRODUCT_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제유형번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_METHOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE DEFAULT SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품옵션번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_ADDRESS_DETAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE DEFAULT SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STATE_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매상태정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STATE_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매상태번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매상태정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STATE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매상태번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STATE_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_CATEGORY_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_OPTION_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_IMAGE_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CART_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_PRODUCT_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INQUIRY_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력형식</t>
+  </si>
+  <si>
+    <t>입력형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매중, 판매종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'카테고리 번호 2자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿0000000_CA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000_OP0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'상품번호' (+) _REV (+) '해당 상품의 리뷰 등록 순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'고객번호' (+) _CA (+) '장바구니 번호 1자리'  (장바구니 번호는 1~5까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 또는 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿00_00_000_REV000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'가입년도 4자리' (+) '해당년도 가입 순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_STATE_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 또는 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 있는 상품개수를 복사해와야함, FK로 했을 시 장바구니가 사라지면 주문한 상품수량을 알 수 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'상품등록연도 2자리'_'상품 카테고리 번호 2자리'_'상품 등록 순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티셔츠, 팬츠/스커트, 원피스, 니트/가디건, 자켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'상품번호' (+) _OP (+) '상품 옵션번호 1자리'  (상품 옵션번호는 1~5까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 한종류당 장바구니 한개씩 / 고객당 장바구니상품 5개까지만 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY (+) '결제유형번호'  (결제유형번호는 1~3까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무통장입금, 신용카드, 휴대폰결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA (+) '진행상태번호'  (진행상태번호는 1~9까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 확인중, 상품준비, 배송처리, 배송완료, 주문취소, 반품 처리중, 환불완료, 교환 처리중, 교환완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'상품번호'_'상품 이미지 등록 순서 1자리'  (상품 이미지는 1~5까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_00_000_OP0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿'문의일자 6자리' (+) '해당일자 문의순서 3자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의접수, 답변완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품, 교환/환불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(15 CHAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'주문일자 6자리'_'고객번호 7자리'_'고객의 당일 주문 순서 1자리'_OR (+) '주문상품번호'  (주문상품번호는 1~5까지만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'주문일자 6자리'_'고객번호 7자리'_'고객의 당일 주문 순서 1자리'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000_0000000_0_OR0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_OPTION_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에서 선택된 상품들이 주문상품으로 넘어옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문이 완료될 경우 데이터가 저장됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문이 완료되지 않았을 경우, 주문되지 않은 주문상품은 데이터가 지워짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문이 완료되지 않았을 경우, 1) 주문테이블에는 아무것도 저장되지 않고, 2) 주문상품테이블에 저장된 데이터가 삭제됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※장바구니 -&gt; 주문상품 -&gt; 주문 테이블의 순서로 데이터가 저장됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000_0000000_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHAR(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,558 +1049,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(60)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_MAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE DEFAULT SYSDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(1000 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상품번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_PRODUCT_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제유형번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYMENT_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYMENT_METHOD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE DEFAULT SYSDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(100 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(50 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품옵션번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_ADDRESS_DETAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE DEFAULT SYSDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매상태번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_STATE_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_CATEGORY_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_OPTION_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_IMAGE_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CART_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_PRODUCT_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INQUIRY_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REVIEW_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력형식</t>
-  </si>
-  <si>
-    <t>입력형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매중, 판매종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'카테고리 번호 2자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿0000000_CA0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000_OP0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'상품번호' (+) _REV (+) '해당 상품의 리뷰 등록 순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'고객번호' (+) _CA (+) '장바구니 번호 1자리'  (장바구니 번호는 1~5까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 또는 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿00_00_000_REV000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'가입년도 4자리' (+) '해당년도 가입 순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STA0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_STATE_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYMENT_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYMENT_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 또는 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 있는 상품개수를 복사해와야함, FK로 했을 시 장바구니가 사라지면 주문한 상품수량을 알 수 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'상품등록연도 2자리'_'상품 카테고리 번호 2자리'_'상품 등록 순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티셔츠, 팬츠/스커트, 원피스, 니트/가디건, 자켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'상품번호' (+) _OP (+) '상품 옵션번호 1자리'  (상품 옵션번호는 1~5까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 한종류당 장바구니 한개씩 / 고객당 장바구니상품 5개까지만 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY (+) '결제유형번호'  (결제유형번호는 1~3까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무통장입금, 신용카드, 휴대폰결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STA (+) '진행상태번호'  (진행상태번호는 1~9까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자 확인중, 상품준비, 배송처리, 배송완료, 주문취소, 반품 처리중, 환불완료, 교환 처리중, 교환완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NCHAR(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PRODUCT_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'상품번호'_'상품 이미지 등록 순서 1자리'  (상품 이미지는 1~5까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_00_000_OP0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿'문의일자 6자리' (+) '해당일자 문의순서 3자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의접수, 답변완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품, 교환/환불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(15 CHAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'주문일자 6자리'_'고객번호 7자리'_'고객의 당일 주문 순서 1자리'_OR (+) '주문상품번호'  (주문상품번호는 1~5까지만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'주문일자 6자리'_'고객번호 7자리'_'고객의 당일 주문 순서 1자리'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000_0000000_0_OR0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_OPTION_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에서 선택된 상품들이 주문상품으로 넘어옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문이 완료될 경우 데이터가 저장됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문이 완료되지 않았을 경우, 주문되지 않은 주문상품은 데이터가 지워짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문이 완료되지 않았을 경우, 1) 주문테이블에는 아무것도 저장되지 않고, 2) 주문상품테이블에 저장된 데이터가 삭제됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※장바구니 -&gt; 주문상품 -&gt; 주문 테이블의 순서로 데이터가 저장됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000_0000000_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(16)</t>
+    <t>NCHAR(9)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1073,11 +1065,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NCHAR(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCHAR(2)</t>
+    <t>NCHAR(7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1783,24 +1771,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1826,18 +1826,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2156,8 +2144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2176,12 +2164,12 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="47" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
@@ -2189,10 +2177,10 @@
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="44" t="s">
         <v>8</v>
       </c>
@@ -2221,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -2235,7 +2223,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>101</v>
@@ -2244,10 +2232,10 @@
         <v>102</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -2261,7 +2249,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>120</v>
+        <v>255</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>101</v>
@@ -2280,7 +2268,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>101</v>
@@ -2299,7 +2287,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>101</v>
@@ -2318,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>101</v>
@@ -2334,10 +2322,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>101</v>
@@ -2356,7 +2344,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>101</v>
@@ -2375,7 +2363,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>101</v>
@@ -2394,7 +2382,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>103</v>
@@ -2413,7 +2401,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>101</v>
@@ -2432,7 +2420,7 @@
         <v>105</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>106</v>
@@ -2451,7 +2439,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>103</v>
@@ -2470,7 +2458,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>103</v>
@@ -2480,12 +2468,12 @@
     </row>
     <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="66"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="47" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
@@ -2493,10 +2481,10 @@
       <c r="H20" s="49"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="44" t="s">
         <v>30</v>
       </c>
@@ -2525,7 +2513,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
@@ -2539,19 +2527,19 @@
         <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
@@ -2565,16 +2553,16 @@
         <v>81</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
@@ -2582,13 +2570,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>101</v>
@@ -2597,7 +2585,7 @@
         <v>111</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
@@ -2611,7 +2599,7 @@
         <v>43</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>101</v>
@@ -2632,7 +2620,7 @@
         <v>44</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>101</v>
@@ -2653,7 +2641,7 @@
         <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>101</v>
@@ -2672,7 +2660,7 @@
         <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>101</v>
@@ -2691,7 +2679,7 @@
         <v>97</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F30" s="28" t="s">
         <v>109</v>
@@ -2711,12 +2699,12 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="66"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="47" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
@@ -2724,12 +2712,12 @@
       <c r="H33" s="49"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="68"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="44" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
@@ -2756,7 +2744,7 @@
         <v>7</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
@@ -2764,13 +2752,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>101</v>
@@ -2779,7 +2767,7 @@
         <v>102</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2787,13 +2775,13 @@
         <v>2</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>101</v>
@@ -2801,7 +2789,7 @@
       <c r="G37" s="29"/>
       <c r="H37" s="30"/>
       <c r="I37" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
@@ -2815,12 +2803,12 @@
     </row>
     <row r="39" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="66"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="47" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
@@ -2828,10 +2816,10 @@
       <c r="H40" s="49"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="68"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="44" t="s">
         <v>38</v>
       </c>
@@ -2860,7 +2848,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
@@ -2874,19 +2862,19 @@
         <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I43" s="35" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2908,7 +2896,7 @@
       <c r="G44" s="29"/>
       <c r="H44" s="30"/>
       <c r="I44" s="16" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
@@ -2922,12 +2910,12 @@
     </row>
     <row r="46" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="66"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="47" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
@@ -2935,10 +2923,10 @@
       <c r="H47" s="49"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="68"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="44" t="s">
         <v>41</v>
       </c>
@@ -2967,7 +2955,7 @@
         <v>7</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
@@ -2981,7 +2969,7 @@
         <v>49</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>101</v>
@@ -2990,10 +2978,10 @@
         <v>112</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="I50" s="35" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
@@ -3007,16 +2995,16 @@
         <v>42</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="18" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3030,7 +3018,7 @@
         <v>46</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F52" s="28" t="s">
         <v>101</v>
@@ -3041,12 +3029,12 @@
     </row>
     <row r="54" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="66"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="47" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
@@ -3054,10 +3042,10 @@
       <c r="H55" s="49"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="68"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="44" t="s">
         <v>40</v>
       </c>
@@ -3086,7 +3074,7 @@
         <v>7</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
@@ -3094,13 +3082,13 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>101</v>
@@ -3109,10 +3097,10 @@
         <v>112</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
@@ -3126,16 +3114,16 @@
         <v>42</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I59" s="16"/>
     </row>
@@ -3147,10 +3135,10 @@
         <v>95</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F60" s="28" t="s">
         <v>101</v>
@@ -3171,12 +3159,12 @@
     </row>
     <row r="62" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="66"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="47" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E63" s="48"/>
       <c r="F63" s="48"/>
@@ -3184,10 +3172,10 @@
       <c r="H63" s="49"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="67" t="s">
+      <c r="B64" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="68"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="44" t="s">
         <v>59</v>
       </c>
@@ -3196,7 +3184,7 @@
       <c r="G64" s="45"/>
       <c r="H64" s="46"/>
       <c r="I64" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
@@ -3219,7 +3207,7 @@
         <v>7</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
@@ -3227,25 +3215,25 @@
         <v>1</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="H66" s="26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
@@ -3259,16 +3247,16 @@
         <v>13</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
@@ -3282,7 +3270,7 @@
         <v>42</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>101</v>
@@ -3291,7 +3279,7 @@
         <v>111</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
@@ -3305,7 +3293,7 @@
         <v>50</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>101</v>
@@ -3314,7 +3302,7 @@
         <v>111</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3328,7 +3316,7 @@
         <v>61</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F70" s="29" t="s">
         <v>101</v>
@@ -3345,90 +3333,94 @@
       <c r="G71" s="4"/>
       <c r="H71" s="21"/>
     </row>
-    <row r="72" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I72" s="43" t="s">
+        <v>247</v>
+      </c>
+    </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="49"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="63"/>
       <c r="I73" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="67" t="s">
+      <c r="B74" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="68"/>
+      <c r="C74" s="57"/>
       <c r="D74" s="44" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="E74" s="45"/>
       <c r="F74" s="45"/>
       <c r="G74" s="45"/>
       <c r="H74" s="46"/>
       <c r="I74" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G75" s="12" t="s">
+      <c r="G75" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="25">
+      <c r="B76" s="38">
         <v>1</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>57</v>
+      <c r="C76" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H76" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="I76" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H76" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I76" s="42" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="25">
+      <c r="B77" s="40">
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -3438,7 +3430,7 @@
         <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>119</v>
+        <v>258</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>101</v>
@@ -3447,7 +3439,7 @@
         <v>111</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
@@ -3455,385 +3447,381 @@
         <v>3</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F78" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>101</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>217</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I78" s="16"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="25">
         <v>4</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>140</v>
+        <v>202</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B80" s="25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="27">
         <v>5</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="26"/>
+      <c r="C80" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G80" s="36"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="19" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="25">
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="21"/>
+    </row>
+    <row r="82" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="51"/>
+      <c r="D83" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="53"/>
+      <c r="D84" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="26"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B82" s="25">
+      <c r="G85" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="26"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="25">
-        <v>8</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="26"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="25">
-        <v>9</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="26"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85" s="25">
-        <v>10</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="26"/>
+      <c r="H85" s="24" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="26"/>
-    </row>
-    <row r="87" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="27">
-        <v>12</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E87" s="29" t="s">
+      <c r="G86" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="I86" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="25">
+        <v>2</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H87" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="25">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H88" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="25">
+        <v>4</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H89" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="25">
+        <v>5</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="26"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="25">
+        <v>6</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F87" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="G87" s="29"/>
-      <c r="H87" s="30"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B88" s="3"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="21"/>
-    </row>
-    <row r="89" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I89" s="43" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B90" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="53"/>
-      <c r="D90" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="E90" s="58"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B91" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="55"/>
-      <c r="D91" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="D91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="26"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B92" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="10" t="s">
+      <c r="B92" s="25">
         <v>7</v>
       </c>
-      <c r="H92" s="24" t="s">
-        <v>181</v>
-      </c>
+      <c r="C92" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="26"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B93" s="38">
-        <v>1</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>135</v>
+      <c r="B93" s="25">
+        <v>8</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H93" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="I93" s="42" t="s">
-        <v>247</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="26"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B94" s="40">
-        <v>2</v>
+      <c r="B94" s="25">
+        <v>9</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H94" s="26" t="s">
-        <v>215</v>
-      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="26"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="25">
-        <v>3</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H95" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="I95" s="16"/>
+        <v>120</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="26"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="25">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H96" s="26" t="s">
-        <v>198</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="26"/>
     </row>
     <row r="97" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="27">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G97" s="36"/>
+        <v>215</v>
+      </c>
+      <c r="G97" s="29"/>
       <c r="H97" s="30"/>
-      <c r="I97" s="19" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="3"/>
@@ -3854,30 +3842,30 @@
       <c r="H99" s="21"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="56" t="s">
+      <c r="B100" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="57"/>
-      <c r="D100" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="60"/>
-      <c r="H100" s="61"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="65"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B101" s="50" t="s">
+      <c r="B101" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="51"/>
-      <c r="D101" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="E101" s="63"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="63"/>
-      <c r="H101" s="64"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="68"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="23" t="s">
@@ -3899,7 +3887,7 @@
         <v>7</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.3">
@@ -3907,25 +3895,25 @@
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H103" s="26" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3933,13 +3921,13 @@
         <v>2</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F104" s="29" t="s">
         <v>101</v>
@@ -3947,7 +3935,7 @@
       <c r="G104" s="41"/>
       <c r="H104" s="30"/>
       <c r="I104" s="19" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.3">
@@ -3961,12 +3949,12 @@
     </row>
     <row r="106" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="52" t="s">
+      <c r="B107" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="53"/>
+      <c r="C107" s="55"/>
       <c r="D107" s="47" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E107" s="48"/>
       <c r="F107" s="48"/>
@@ -3974,10 +3962,10 @@
       <c r="H107" s="49"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B108" s="54" t="s">
+      <c r="B108" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="55"/>
+      <c r="C108" s="57"/>
       <c r="D108" s="44" t="s">
         <v>68</v>
       </c>
@@ -4006,7 +3994,7 @@
         <v>7</v>
       </c>
       <c r="H109" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.3">
@@ -4020,19 +4008,19 @@
         <v>66</v>
       </c>
       <c r="E110" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H110" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H110" s="26" t="s">
-        <v>217</v>
-      </c>
       <c r="I110" s="4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4046,7 +4034,7 @@
         <v>98</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F111" s="29" t="s">
         <v>101</v>
@@ -4054,17 +4042,17 @@
       <c r="G111" s="41"/>
       <c r="H111" s="30"/>
       <c r="I111" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="114" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B114" s="65" t="s">
+      <c r="B114" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="66"/>
+      <c r="C114" s="51"/>
       <c r="D114" s="47" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E114" s="48"/>
       <c r="F114" s="48"/>
@@ -4072,10 +4060,10 @@
       <c r="H114" s="49"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B115" s="67" t="s">
+      <c r="B115" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="68"/>
+      <c r="C115" s="53"/>
       <c r="D115" s="44" t="s">
         <v>70</v>
       </c>
@@ -4104,7 +4092,7 @@
         <v>7</v>
       </c>
       <c r="H116" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.3">
@@ -4118,19 +4106,19 @@
         <v>77</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H117" s="26" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I117" s="19" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.3">
@@ -4144,7 +4132,7 @@
         <v>13</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>101</v>
@@ -4153,7 +4141,7 @@
         <v>111</v>
       </c>
       <c r="H118" s="26" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.3">
@@ -4167,7 +4155,7 @@
         <v>78</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>101</v>
@@ -4186,7 +4174,7 @@
         <v>80</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>101</v>
@@ -4194,7 +4182,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="26"/>
       <c r="I120" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.3">
@@ -4208,7 +4196,7 @@
         <v>93</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>101</v>
@@ -4216,7 +4204,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="26"/>
       <c r="I121" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.3">
@@ -4230,7 +4218,7 @@
         <v>83</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>101</v>
@@ -4249,7 +4237,7 @@
         <v>84</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>101</v>
@@ -4268,22 +4256,22 @@
         <v>85</v>
       </c>
       <c r="E124" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F124" s="29" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G124" s="29"/>
       <c r="H124" s="30"/>
     </row>
     <row r="126" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="127" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B127" s="65" t="s">
+      <c r="B127" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C127" s="66"/>
+      <c r="C127" s="51"/>
       <c r="D127" s="47" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E127" s="48"/>
       <c r="F127" s="48"/>
@@ -4291,10 +4279,10 @@
       <c r="H127" s="49"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B128" s="67" t="s">
+      <c r="B128" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C128" s="68"/>
+      <c r="C128" s="53"/>
       <c r="D128" s="44" t="s">
         <v>86</v>
       </c>
@@ -4323,7 +4311,7 @@
         <v>7</v>
       </c>
       <c r="H129" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.3">
@@ -4337,19 +4325,19 @@
         <v>90</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H130" s="26" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I130" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.3">
@@ -4363,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>101</v>
@@ -4372,7 +4360,7 @@
         <v>111</v>
       </c>
       <c r="H131" s="26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.3">
@@ -4386,7 +4374,7 @@
         <v>57</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>101</v>
@@ -4395,7 +4383,7 @@
         <v>111</v>
       </c>
       <c r="H132" s="26" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
@@ -4409,7 +4397,7 @@
         <v>91</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>101</v>
@@ -4428,7 +4416,7 @@
         <v>92</v>
       </c>
       <c r="E134" s="28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F134" s="28" t="s">
         <v>101</v>
@@ -4440,6 +4428,49 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="B2:C2"/>
@@ -4449,49 +4480,6 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/joeunmall_자료/joeun_테이블설계.xlsx
+++ b/joeunmall_자료/joeun_테이블설계.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\joeunmall_프로젝트_자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joeunmall-teamproject2\joeunmall_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="262">
   <si>
     <t>TABLE NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1066,6 +1066,10 @@
   </si>
   <si>
     <t>NCHAR(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품옵션번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1771,6 +1775,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1781,51 +1830,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2145,7 +2149,7 @@
   <dimension ref="B1:J134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2164,10 +2168,10 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="47" t="s">
         <v>168</v>
       </c>
@@ -2177,10 +2181,10 @@
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="44" t="s">
         <v>8</v>
       </c>
@@ -2468,10 +2472,10 @@
     </row>
     <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="47" t="s">
         <v>229</v>
       </c>
@@ -2481,10 +2485,10 @@
       <c r="H20" s="49"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="44" t="s">
         <v>30</v>
       </c>
@@ -2699,10 +2703,10 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="51"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="47" t="s">
         <v>160</v>
       </c>
@@ -2712,10 +2716,10 @@
       <c r="H33" s="49"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="53"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="44" t="s">
         <v>161</v>
       </c>
@@ -2803,10 +2807,10 @@
     </row>
     <row r="39" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="47" t="s">
         <v>169</v>
       </c>
@@ -2816,10 +2820,10 @@
       <c r="H40" s="49"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="53"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="44" t="s">
         <v>38</v>
       </c>
@@ -2910,10 +2914,10 @@
     </row>
     <row r="46" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="51"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="47" t="s">
         <v>171</v>
       </c>
@@ -2923,10 +2927,10 @@
       <c r="H47" s="49"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="53"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="44" t="s">
         <v>41</v>
       </c>
@@ -3029,10 +3033,10 @@
     </row>
     <row r="54" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="51"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="47" t="s">
         <v>170</v>
       </c>
@@ -3042,10 +3046,10 @@
       <c r="H55" s="49"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="53"/>
+      <c r="C56" s="68"/>
       <c r="D56" s="44" t="s">
         <v>40</v>
       </c>
@@ -3159,10 +3163,10 @@
     </row>
     <row r="62" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="47" t="s">
         <v>172</v>
       </c>
@@ -3172,10 +3176,10 @@
       <c r="H63" s="49"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="53"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="44" t="s">
         <v>59</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>48</v>
+        <v>261</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>50</v>
@@ -3339,26 +3343,26 @@
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="55"/>
-      <c r="D73" s="62" t="s">
+      <c r="C73" s="53"/>
+      <c r="D73" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="63"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="59"/>
       <c r="I73" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="57"/>
+      <c r="C74" s="55"/>
       <c r="D74" s="44" t="s">
         <v>143</v>
       </c>
@@ -3522,10 +3526,10 @@
     </row>
     <row r="82" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="51"/>
+      <c r="C83" s="66"/>
       <c r="D83" s="47" t="s">
         <v>173</v>
       </c>
@@ -3538,10 +3542,10 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="53"/>
+      <c r="C84" s="68"/>
       <c r="D84" s="44" t="s">
         <v>51</v>
       </c>
@@ -3842,30 +3846,30 @@
       <c r="H99" s="21"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="60" t="s">
+      <c r="B100" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="61"/>
-      <c r="D100" s="64" t="s">
+      <c r="C100" s="57"/>
+      <c r="D100" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="64"/>
-      <c r="H100" s="65"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="61"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="59"/>
-      <c r="D101" s="66" t="s">
+      <c r="C101" s="51"/>
+      <c r="D101" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="68"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="64"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="23" t="s">
@@ -3949,10 +3953,10 @@
     </row>
     <row r="106" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="54" t="s">
+      <c r="B107" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="55"/>
+      <c r="C107" s="53"/>
       <c r="D107" s="47" t="s">
         <v>210</v>
       </c>
@@ -3962,10 +3966,10 @@
       <c r="H107" s="49"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B108" s="56" t="s">
+      <c r="B108" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="57"/>
+      <c r="C108" s="55"/>
       <c r="D108" s="44" t="s">
         <v>68</v>
       </c>
@@ -4047,10 +4051,10 @@
     </row>
     <row r="113" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="114" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B114" s="50" t="s">
+      <c r="B114" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="51"/>
+      <c r="C114" s="66"/>
       <c r="D114" s="47" t="s">
         <v>175</v>
       </c>
@@ -4060,10 +4064,10 @@
       <c r="H114" s="49"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B115" s="52" t="s">
+      <c r="B115" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="53"/>
+      <c r="C115" s="68"/>
       <c r="D115" s="44" t="s">
         <v>70</v>
       </c>
@@ -4266,10 +4270,10 @@
     </row>
     <row r="126" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="127" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B127" s="50" t="s">
+      <c r="B127" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C127" s="51"/>
+      <c r="C127" s="66"/>
       <c r="D127" s="47" t="s">
         <v>176</v>
       </c>
@@ -4279,10 +4283,10 @@
       <c r="H127" s="49"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B128" s="52" t="s">
+      <c r="B128" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C128" s="53"/>
+      <c r="C128" s="68"/>
       <c r="D128" s="44" t="s">
         <v>86</v>
       </c>
@@ -4428,49 +4432,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="B2:C2"/>
@@ -4480,6 +4441,49 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/joeunmall_자료/joeun_테이블설계.xlsx
+++ b/joeunmall_자료/joeun_테이블설계.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joeunmall-teamproject2\joeunmall_자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rja20\OneDrive\문서\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9819C8-E867-44E2-B9B5-B214BDB78C45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1053,6 +1054,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NCHAR(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NCHAR(9)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1065,18 +1070,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NCHAR(7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품옵션번호</t>
+    <t>NCHAR(12)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1775,24 +1776,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1818,18 +1831,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2145,11 +2146,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2168,10 +2169,10 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="47" t="s">
         <v>168</v>
       </c>
@@ -2181,10 +2182,10 @@
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="44" t="s">
         <v>8</v>
       </c>
@@ -2472,10 +2473,10 @@
     </row>
     <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="66"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="47" t="s">
         <v>229</v>
       </c>
@@ -2485,10 +2486,10 @@
       <c r="H20" s="49"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="44" t="s">
         <v>30</v>
       </c>
@@ -2703,10 +2704,10 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="66"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="47" t="s">
         <v>160</v>
       </c>
@@ -2716,10 +2717,10 @@
       <c r="H33" s="49"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="68"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="44" t="s">
         <v>161</v>
       </c>
@@ -2807,10 +2808,10 @@
     </row>
     <row r="39" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="66"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="47" t="s">
         <v>169</v>
       </c>
@@ -2820,10 +2821,10 @@
       <c r="H40" s="49"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="68"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="44" t="s">
         <v>38</v>
       </c>
@@ -2914,10 +2915,10 @@
     </row>
     <row r="46" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="66"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="47" t="s">
         <v>171</v>
       </c>
@@ -2927,10 +2928,10 @@
       <c r="H47" s="49"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="68"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="44" t="s">
         <v>41</v>
       </c>
@@ -3033,10 +3034,10 @@
     </row>
     <row r="54" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="66"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="47" t="s">
         <v>170</v>
       </c>
@@ -3046,10 +3047,10 @@
       <c r="H55" s="49"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="68"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="44" t="s">
         <v>40</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>42</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>101</v>
@@ -3163,10 +3164,10 @@
     </row>
     <row r="62" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="66"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="47" t="s">
         <v>172</v>
       </c>
@@ -3176,10 +3177,10 @@
       <c r="H63" s="49"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="67" t="s">
+      <c r="B64" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="68"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="44" t="s">
         <v>59</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>101</v>
@@ -3291,7 +3292,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>261</v>
+        <v>152</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>50</v>
@@ -3343,26 +3344,26 @@
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="53"/>
-      <c r="D73" s="58" t="s">
+      <c r="C73" s="55"/>
+      <c r="D73" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="59"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="63"/>
       <c r="I73" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="54" t="s">
+      <c r="B74" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="55"/>
+      <c r="C74" s="57"/>
       <c r="D74" s="44" t="s">
         <v>143</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>101</v>
@@ -3457,7 +3458,7 @@
         <v>42</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>101</v>
@@ -3526,10 +3527,10 @@
     </row>
     <row r="82" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="65" t="s">
+      <c r="B83" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="66"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="47" t="s">
         <v>173</v>
       </c>
@@ -3542,10 +3543,10 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="67" t="s">
+      <c r="B84" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="68"/>
+      <c r="C84" s="53"/>
       <c r="D84" s="44" t="s">
         <v>51</v>
       </c>
@@ -3846,30 +3847,30 @@
       <c r="H99" s="21"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="56" t="s">
+      <c r="B100" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="57"/>
-      <c r="D100" s="60" t="s">
+      <c r="C100" s="61"/>
+      <c r="D100" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="60"/>
-      <c r="H100" s="61"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="65"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B101" s="50" t="s">
+      <c r="B101" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="51"/>
-      <c r="D101" s="62" t="s">
+      <c r="C101" s="59"/>
+      <c r="D101" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="E101" s="63"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="63"/>
-      <c r="H101" s="64"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="68"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="23" t="s">
@@ -3953,10 +3954,10 @@
     </row>
     <row r="106" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="52" t="s">
+      <c r="B107" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="53"/>
+      <c r="C107" s="55"/>
       <c r="D107" s="47" t="s">
         <v>210</v>
       </c>
@@ -3966,10 +3967,10 @@
       <c r="H107" s="49"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B108" s="54" t="s">
+      <c r="B108" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="55"/>
+      <c r="C108" s="57"/>
       <c r="D108" s="44" t="s">
         <v>68</v>
       </c>
@@ -4051,10 +4052,10 @@
     </row>
     <row r="113" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="114" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B114" s="65" t="s">
+      <c r="B114" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="66"/>
+      <c r="C114" s="51"/>
       <c r="D114" s="47" t="s">
         <v>175</v>
       </c>
@@ -4064,10 +4065,10 @@
       <c r="H114" s="49"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B115" s="67" t="s">
+      <c r="B115" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="68"/>
+      <c r="C115" s="53"/>
       <c r="D115" s="44" t="s">
         <v>70</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>13</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>101</v>
@@ -4270,10 +4271,10 @@
     </row>
     <row r="126" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="127" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B127" s="65" t="s">
+      <c r="B127" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C127" s="66"/>
+      <c r="C127" s="51"/>
       <c r="D127" s="47" t="s">
         <v>176</v>
       </c>
@@ -4283,10 +4284,10 @@
       <c r="H127" s="49"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B128" s="67" t="s">
+      <c r="B128" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C128" s="68"/>
+      <c r="C128" s="53"/>
       <c r="D128" s="44" t="s">
         <v>86</v>
       </c>
@@ -4432,21 +4433,33 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D114:H114"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B83:C83"/>
@@ -4457,33 +4470,21 @@
     <mergeCell ref="D63:H63"/>
     <mergeCell ref="D64:H64"/>
     <mergeCell ref="D83:H83"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
